--- a/docs/test_plan_tracker/TestPlan-v1.xlsx
+++ b/docs/test_plan_tracker/TestPlan-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiithydstudents-my.sharepoint.com/personal/aditya_ga_students_iiit_ac_in/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1761D142-7420-470B-B142-6C8D91B9C0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C36ADC-753A-497A-A98D-71E789177627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AD0294D-087C-4BC0-9CA7-2E5F8F29F1E1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="241">
   <si>
     <t>Test Planner and Tracker</t>
   </si>
@@ -351,6 +351,9 @@
     <t>Payment Gateway will be implemeted in R2.</t>
   </si>
   <si>
+    <t>Yet to be implemented</t>
+  </si>
+  <si>
     <t>Log in with a test account on Free subscription
 Navigate to subscription page and tap "Upgrade to Premium"
 Enter invalid payment details or trigger a payment failure scenario
@@ -1129,7 +1132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1183,11 +1186,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1432,7 +1430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1596,9 +1594,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,8 +2011,8 @@
   </sheetPr>
   <dimension ref="A1:Z81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2358,6 +2353,9 @@
         <v>57</v>
       </c>
       <c r="H16" s="48"/>
+      <c r="I16" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:26" ht="133.5" customHeight="1">
       <c r="A17" s="40">
@@ -2371,17 +2369,19 @@
         <v>52</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="40" t="s">
         <v>57</v>
       </c>
       <c r="H17" s="48"/>
-      <c r="I17" s="59"/>
+      <c r="I17" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:26" ht="166.9" customHeight="1">
       <c r="A18" s="40">
@@ -2395,10 +2395,10 @@
         <v>48</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18" s="43"/>
     </row>
@@ -2408,22 +2408,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H19" s="48"/>
+      <c r="I19" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:26" ht="155.44999999999999" customHeight="1">
       <c r="A20" s="40">
@@ -2431,22 +2434,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H20" s="48"/>
+      <c r="I20" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:26" ht="69">
       <c r="A21" s="40">
@@ -2454,16 +2460,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="43"/>
     </row>
@@ -2473,16 +2479,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="43"/>
     </row>
@@ -2492,16 +2498,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" s="44"/>
     </row>
@@ -2511,16 +2517,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="44"/>
     </row>
@@ -2530,16 +2536,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="43"/>
     </row>
@@ -2549,16 +2555,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F26" s="43"/>
     </row>
@@ -2568,16 +2574,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F27" s="43"/>
     </row>
@@ -2587,16 +2593,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F28" s="43"/>
     </row>
@@ -2606,22 +2612,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" s="49"/>
       <c r="G29" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H29" s="48"/>
+      <c r="I29" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:26" ht="60" customHeight="1">
       <c r="A30" s="40">
@@ -2629,22 +2638,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F30" s="49"/>
       <c r="G30" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H30" s="48"/>
+      <c r="I30" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:26" ht="132" customHeight="1">
       <c r="A31" s="40">
@@ -2652,22 +2664,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H31" s="48"/>
+      <c r="I31" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:26" ht="129" customHeight="1">
       <c r="A32" s="40">
@@ -2675,553 +2690,610 @@
         <v>30</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F32" s="49"/>
       <c r="G32" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H32" s="48"/>
-      <c r="Z32" s="60"/>
-    </row>
-    <row r="33" spans="1:8" ht="126" customHeight="1">
+      <c r="I32" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z32" s="59"/>
+    </row>
+    <row r="33" spans="1:9" ht="126" customHeight="1">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F33" s="49"/>
       <c r="G33" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H33" s="48"/>
-    </row>
-    <row r="34" spans="1:8" ht="129" customHeight="1">
+      <c r="I33" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="129" customHeight="1">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="40" t="s">
         <v>106</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>105</v>
       </c>
       <c r="F34" s="49"/>
       <c r="G34" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" s="48"/>
-    </row>
-    <row r="35" spans="1:8" ht="209.25" customHeight="1">
+      <c r="I34" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="209.25" customHeight="1">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="1:8" ht="180.75" customHeight="1">
+      <c r="I35" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="180.75" customHeight="1">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F36" s="49"/>
       <c r="G36" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" s="48"/>
-    </row>
-    <row r="37" spans="1:8" ht="69">
+      <c r="I36" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="69">
       <c r="A37" s="40">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C37" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="43"/>
+    </row>
+    <row r="38" spans="1:9" ht="35.25">
+      <c r="A38" s="40">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="43"/>
-    </row>
-    <row r="38" spans="1:8" ht="35.25">
-      <c r="A38" s="40">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>115</v>
-      </c>
       <c r="C38" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F38" s="43"/>
     </row>
-    <row r="39" spans="1:8" ht="46.5">
+    <row r="39" spans="1:9" ht="46.5">
       <c r="A39" s="40">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F39" s="43"/>
     </row>
-    <row r="40" spans="1:8" ht="35.25">
+    <row r="40" spans="1:9" ht="35.25">
       <c r="A40" s="40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F40" s="43"/>
     </row>
-    <row r="41" spans="1:8" ht="35.25">
+    <row r="41" spans="1:9" ht="35.25">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F41" s="49"/>
       <c r="G41" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H41" s="48"/>
-    </row>
-    <row r="42" spans="1:8" ht="35.25">
+      <c r="I41" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="35.25">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F42" s="49"/>
       <c r="G42" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H42" s="48"/>
-    </row>
-    <row r="43" spans="1:8" ht="35.25">
+      <c r="I42" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="35.25">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H43" s="48"/>
-    </row>
-    <row r="44" spans="1:8" ht="23.25">
+      <c r="I43" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="23.25">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="1:8" ht="35.25">
+    <row r="45" spans="1:9" ht="35.25">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F45" s="49"/>
       <c r="G45" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H45" s="48"/>
-    </row>
-    <row r="46" spans="1:8" ht="46.5">
+      <c r="I45" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="46.5">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="1:8" ht="46.5">
+    <row r="47" spans="1:9" ht="46.5">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H47" s="48"/>
-    </row>
-    <row r="48" spans="1:8" ht="23.25">
+      <c r="I47" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="23.25">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F48" s="49"/>
       <c r="G48" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H48" s="48"/>
-    </row>
-    <row r="49" spans="1:8" ht="35.25">
+      <c r="I48" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="35.25">
       <c r="A49" s="40">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F49" s="49"/>
       <c r="G49" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H49" s="48"/>
-    </row>
-    <row r="50" spans="1:8" ht="46.5">
+      <c r="I49" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="46.5">
       <c r="A50" s="40">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F50" s="49"/>
       <c r="G50" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H50" s="48"/>
-    </row>
-    <row r="51" spans="1:8" ht="35.25">
+      <c r="I50" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="35.25">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F51" s="49"/>
       <c r="G51" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H51" s="48"/>
-    </row>
-    <row r="52" spans="1:8" ht="35.25">
+      <c r="I51" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="35.25">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F52" s="49"/>
       <c r="G52" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H52" s="48"/>
-    </row>
-    <row r="53" spans="1:8" ht="35.25">
+      <c r="I52" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="35.25">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F53" s="49"/>
       <c r="G53" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H53" s="48"/>
-    </row>
-    <row r="54" spans="1:8" ht="23.25">
+      <c r="I53" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="23.25">
       <c r="A54" s="40">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F54" s="49"/>
       <c r="G54" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H54" s="48"/>
-    </row>
-    <row r="55" spans="1:8" ht="35.25">
+      <c r="I54" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="35.25">
       <c r="A55" s="40">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F55" s="49"/>
       <c r="G55" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H55" s="48"/>
-    </row>
-    <row r="56" spans="1:8" ht="23.25">
+      <c r="I55" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="23.25">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H56" s="48"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="23.25">
       <c r="A57" s="40">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3232,103 +3304,118 @@
       <c r="E57" s="52"/>
       <c r="F57" s="57"/>
       <c r="G57" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H57" s="48"/>
-    </row>
-    <row r="58" spans="1:8" ht="35.25">
+      <c r="I57" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="35.25">
       <c r="A58" s="51">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E58" s="56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F58" s="39"/>
       <c r="G58" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H58" s="58"/>
-    </row>
-    <row r="59" spans="1:8" ht="23.25">
+      <c r="I58" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="23.25">
       <c r="A59" s="51">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E59" s="56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F59" s="39"/>
       <c r="G59" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H59" s="58"/>
-    </row>
-    <row r="60" spans="1:8" ht="35.25">
+      <c r="I59" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="35.25">
       <c r="A60" s="51">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E60" s="56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H60" s="58"/>
-    </row>
-    <row r="61" spans="1:8" ht="35.25">
+      <c r="I60" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="35.25">
       <c r="A61" s="51">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61" s="55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E61" s="56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H61" s="58"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="40">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3341,7 +3428,7 @@
       <c r="G62" s="37"/>
       <c r="H62" s="53"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9">
       <c r="A63" s="40">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3354,7 +3441,7 @@
       <c r="G63" s="37"/>
       <c r="H63" s="53"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3503,82 +3590,82 @@
   <sheetData>
     <row r="1" spans="2:2" ht="15.6">
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3610,49 +3697,49 @@
   <sheetData>
     <row r="2" spans="1:7" ht="21">
       <c r="A2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="26.45">
       <c r="A7" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="52.9">
@@ -3660,16 +3747,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
@@ -3679,16 +3766,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="13"/>
@@ -3698,16 +3785,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
@@ -3717,10 +3804,10 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="14"/>
@@ -3730,16 +3817,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
@@ -3749,10 +3836,10 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -3762,16 +3849,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
@@ -3781,13 +3868,13 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -3796,16 +3883,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="32"/>
@@ -3815,10 +3902,10 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="14"/>

--- a/docs/test_plan_tracker/TestPlan-v1.xlsx
+++ b/docs/test_plan_tracker/TestPlan-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiithydstudents-my.sharepoint.com/personal/aditya_ga_students_iiit_ac_in/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C36ADC-753A-497A-A98D-71E789177627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F7CC132-18DF-4A16-8023-FEBF00F029F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AD0294D-087C-4BC0-9CA7-2E5F8F29F1E1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="303">
   <si>
     <t>Test Planner and Tracker</t>
   </si>
@@ -953,6 +953,259 @@
   </si>
   <si>
     <t>Next set of posts (e.g., next 10) loads and appends below the previous ones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notification System and Settings  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) The system is up and running. 
+2) The user is authenticated and already logged in. 
+3) The user navigates to notifications section under my account page via the settings page on main screen. </t>
+  </si>
+  <si>
+    <t>Login to the application
+Navigate to the notifications section under My Account via Settings
+Toggle the "Push Notifications" switch from OFF to ON
+Save the settings
+Toggle the "Push Notifications" switch from ON to OFF
+Save the settings</t>
+  </si>
+  <si>
+    <t>When toggled ON and saved, the system should display a confirmation message
+The Push Notifications setting should remain ON after page refresh
+When toggled OFF and saved, the system should display a confirmation message
+The Push Notifications setting should remain OFF after page refresh
+The user should receive or stop receiving push notifications based on the toggle state</t>
+  </si>
+  <si>
+    <t>Login to the application
+Navigate to the notifications section under My Account via Settings
+Toggle the "Email Notifications" switch from OFF to ON
+Save the settings
+Toggle the "Email Notifications" switch from ON to OFF
+Save the settings</t>
+  </si>
+  <si>
+    <t>When toggled ON and saved, the system should display a confirmation message
+The Email Notifications setting should remain ON after page refresh
+When toggled OFF and saved, the system should display a confirmation message
+The Email Notifications setting should remain OFF after page refresh
+The user should receive or stop receiving email notifications based on the toggle state</t>
+  </si>
+  <si>
+    <t>Login to the application
+Navigate to the notifications section under My Account via Settings
+With Push Notifications ON, select the following types:
+New Messages
+Reminders
+App Updates
+Deselect Marketing Emails and Activity Summary
+Save the settings</t>
+  </si>
+  <si>
+    <t>Only the selected notification types should be checked
+The system should save these preferences successfully
+The user should only receive the selected types of notifications
+The selections should persist after page refresh</t>
+  </si>
+  <si>
+    <t>Login to the application
+Ensure device-level push permissions are disabled
+Navigate to the notifications section under My Account via Settings
+Toggle Push Notifications to ON
+Save the settings</t>
+  </si>
+  <si>
+    <t>The system should display a prompt instructing the user to enable push notifications in device settings
+The user should be unable to enable push notifications until device permissions are granted
+The prompt should provide clear instructions on how to enable device permissions</t>
+  </si>
+  <si>
+    <t>Chat History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Authenticated user with valid JWT token containing user ID
+2.At least one existing chat session in the database associated with the user
+3. Session contains multiple message exchanges between user and assistant
+4. MongoDB connection is active and operational
+5. User has permission to access the requested session history
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) Create session with 50+ message exchanges, 2) Request history with page/limit parameters, 3) Make multiple requests to retrieve different pages</t>
+  </si>
+  <si>
+    <t>System correctly limits results per page, provides pagination metadata (total messages, current page, total pages), and maintains conversation integrity across page boundaries</t>
+  </si>
+  <si>
+    <t>1) Create session with multiple message exchanges, 2) Request complete history with valid session ID, 3) Verify all messages are returned in correct order</t>
+  </si>
+  <si>
+    <t>Complete conversation history returned with proper chronological ordering, correct message attribution (user/assistant), and complete message content</t>
+  </si>
+  <si>
+    <t>Connect with Other Parents</t>
+  </si>
+  <si>
+    <t>1) User A is logged in.
+2) User B’s profile is visible to User A.
+3) They are not already connected.</t>
+  </si>
+  <si>
+    <t>1) Click “Send Friend Request” on User B’s profile.
+2) Confirm the action.</t>
+  </si>
+  <si>
+    <t>Friend request is sent. Button state updates to "Request Sent".</t>
+  </si>
+  <si>
+    <t>1) User B is logged in.
+2) A pending friend request exists from User A.</t>
+  </si>
+  <si>
+    <t>1) Open notifications or requests section.
+2) Click “Accept”.</t>
+  </si>
+  <si>
+    <t>Connection is established. Both users can now chat. Request notification disappears.</t>
+  </si>
+  <si>
+    <t>1) Click “Decline”.</t>
+  </si>
+  <si>
+    <t>Request is removed. Users remain unconnected.</t>
+  </si>
+  <si>
+    <t>1) User A and User B are connected.
+2) Chat interface is accessible.</t>
+  </si>
+  <si>
+    <t>1) Open User B’s profile.
+2) Click “Message”.
+3) Send a message like “Hi!”.</t>
+  </si>
+  <si>
+    <t>Message is delivered and appears in chat history. User B gets notified.</t>
+  </si>
+  <si>
+    <t>1) User A and B are not connected.
+2) User A opens User B’s profile.</t>
+  </si>
+  <si>
+    <t>1) Try to access messaging screen directly via URL or dev tools.</t>
+  </si>
+  <si>
+    <t>Access denied. User is shown an error: “Connect with this parent to start chatting.”</t>
+  </si>
+  <si>
+    <t>1) User A and B are connected.
+2) Chat screen is open.</t>
+  </si>
+  <si>
+    <t>1) User A sends a message.
+2) User B reloads or revisits the app.</t>
+  </si>
+  <si>
+    <t>Message persists in chat history.</t>
+  </si>
+  <si>
+    <t>1) User A opens chat.
+2) User B is not online.</t>
+  </si>
+  <si>
+    <t>1) Send message.
+2) Observe system behavior.</t>
+  </si>
+  <si>
+    <t>Message is queued and delivered when User B comes online.</t>
+  </si>
+  <si>
+    <t>Growth Tracking</t>
+  </si>
+  <si>
+    <t>1) User is authenticated.
+2) A child profile exists.
+3) Growth module is accessible.</t>
+  </si>
+  <si>
+    <t>1) Enter valid height and weight values along with the date.
+2) Submit.</t>
+  </si>
+  <si>
+    <t>Entry is saved and added to the child’s growth record.</t>
+  </si>
+  <si>
+    <t>1) User is on the growth entry form.
+2) All input fields are empty.</t>
+  </si>
+  <si>
+    <t>1) Click “Submit” without entering any values.</t>
+  </si>
+  <si>
+    <t>Validation error: “Height/weight is required.” Entry not saved.</t>
+  </si>
+  <si>
+    <t>1) User is entering growth data.
+2) User inputs non-numeric characters in height field.</t>
+  </si>
+  <si>
+    <t>1) Submit form with “abc” in height.</t>
+  </si>
+  <si>
+    <t>Validation error shown: “Please enter a valid number.”</t>
+  </si>
+  <si>
+    <t>1) Multiple growth entries exist over time.
+2) Charting module is available.</t>
+  </si>
+  <si>
+    <t>1) Navigate to “Growth Chart” view.
+2) Observe graph.</t>
+  </si>
+  <si>
+    <t>Chart displays plotted points over time for parameters like height/weight.</t>
+  </si>
+  <si>
+    <t>1) User is on growth chart view.
+2) Multiple children exist.</t>
+  </si>
+  <si>
+    <t>1) Switch to another child’s profile.
+2) Observe graph.</t>
+  </si>
+  <si>
+    <t>Chart updates to reflect the selected child’s data.</t>
+  </si>
+  <si>
+    <t>1) User enters a date in the future.</t>
+  </si>
+  <si>
+    <t>1) Input height with future date (e.g., next year).
+2) Submit.</t>
+  </si>
+  <si>
+    <t>Error: “Date cannot be in the future.” Entry not saved.</t>
+  </si>
+  <si>
+    <t>1) Growth chart exists with data.
+2) Data is saved in database.</t>
+  </si>
+  <si>
+    <t>1) Reload the app.
+2) Revisit chart.</t>
+  </si>
+  <si>
+    <t>Data persists and graph is regenerated accurately from stored data.</t>
+  </si>
+  <si>
+    <t>1) Growth data exists.
+2) Data export option is visible.</t>
+  </si>
+  <si>
+    <t>1) Click “Download PDF” or “Export CSV”.</t>
+  </si>
+  <si>
+    <t>File downloads with all logged entries in tabular format.</t>
   </si>
   <si>
     <t>Test plan Instructions</t>
@@ -1226,7 +1479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1426,11 +1679,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1534,12 +1798,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1554,6 +1829,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1569,9 +1850,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1597,6 +1875,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2009,1554 +2302,2033 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z81"/>
+  <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="26" style="40" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="53" style="40" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="26" style="43" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="53" style="43" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="43" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="40" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="40"/>
+    <col min="8" max="8" width="17.7109375" style="43" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="43" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51">
         <v>49</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="47"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="35.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="93.6" customHeight="1">
-      <c r="A3" s="40">
+      <c r="A3" s="43">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="40" t="s">
+      <c r="F3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="46.5">
-      <c r="A4" s="40">
-        <f t="shared" ref="A4:A67" si="0">ROW(A2)</f>
+      <c r="A4" s="43">
+        <f t="shared" ref="A4:A66" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="40" t="s">
+      <c r="F4" s="45"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
-      <c r="A5" s="40">
+      <c r="A5" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="40" t="s">
+      <c r="F5" s="46"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="85.15" customHeight="1">
-      <c r="A6" s="40">
+      <c r="A6" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:12" ht="94.9" customHeight="1">
-      <c r="A7" s="40">
+      <c r="A7" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:12" ht="82.15" customHeight="1">
-      <c r="A8" s="40">
+      <c r="A8" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:12" ht="80.45" customHeight="1">
-      <c r="A9" s="40">
+      <c r="A9" s="43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:12" ht="233.25" customHeight="1">
-      <c r="A10" s="40">
+      <c r="A10" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:12" ht="216.75" customHeight="1">
-      <c r="A11" s="40">
+      <c r="A11" s="43">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:12" ht="120.6" customHeight="1">
-      <c r="A12" s="40">
+      <c r="A12" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:12" ht="97.15" customHeight="1">
-      <c r="A13" s="40">
+      <c r="A13" s="43">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="207" customHeight="1">
-      <c r="A14" s="40">
+      <c r="A14" s="43">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:12" ht="135.6" customHeight="1">
-      <c r="A15" s="40">
+      <c r="A15" s="43">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:12" ht="192" customHeight="1">
-      <c r="A16" s="40">
+      <c r="A16" s="43">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="40" t="s">
+      <c r="H16" s="53"/>
+      <c r="I16" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="133.5" customHeight="1">
-      <c r="A17" s="40">
+      <c r="A17" s="43">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="40" t="s">
+      <c r="H17" s="53"/>
+      <c r="I17" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="166.9" customHeight="1">
-      <c r="A18" s="40">
+      <c r="A18" s="43">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="43"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:26" ht="165.75" customHeight="1">
-      <c r="A19" s="40">
+      <c r="A19" s="43">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="40" t="s">
+      <c r="H19" s="53"/>
+      <c r="I19" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="155.44999999999999" customHeight="1">
-      <c r="A20" s="40">
+      <c r="A20" s="43">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="49"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="40" t="s">
+      <c r="H20" s="53"/>
+      <c r="I20" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="69">
-      <c r="A21" s="40">
+      <c r="A21" s="43">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:26" ht="58.5">
-      <c r="A22" s="40">
+      <c r="A22" s="43">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="46"/>
     </row>
     <row r="23" spans="1:26" ht="58.5">
-      <c r="A23" s="40">
+      <c r="A23" s="43">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:26" ht="69" customHeight="1">
-      <c r="A24" s="40">
+      <c r="A24" s="43">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:26" ht="58.5">
-      <c r="A25" s="40">
+      <c r="A25" s="43">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="43"/>
+      <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:26" ht="58.5">
-      <c r="A26" s="40">
+      <c r="A26" s="43">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="43"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:26" ht="69">
-      <c r="A27" s="40">
+      <c r="A27" s="43">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="43"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:26" ht="69">
-      <c r="A28" s="40">
+      <c r="A28" s="43">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="43"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A29" s="40">
+      <c r="A29" s="43">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="40" t="s">
+      <c r="F29" s="54"/>
+      <c r="G29" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="53"/>
+      <c r="I29" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="60" customHeight="1">
-      <c r="A30" s="40">
+      <c r="A30" s="43">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="49"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="40" t="s">
+      <c r="H30" s="53"/>
+      <c r="I30" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="132" customHeight="1">
-      <c r="A31" s="40">
+      <c r="A31" s="43">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="40" t="s">
+      <c r="F31" s="54"/>
+      <c r="G31" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="53"/>
+      <c r="I31" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="129" customHeight="1">
-      <c r="A32" s="40">
+      <c r="A32" s="43">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="49"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z32" s="59"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z32" s="63"/>
     </row>
     <row r="33" spans="1:9" ht="126" customHeight="1">
-      <c r="A33" s="40">
+      <c r="A33" s="43">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="48"/>
-      <c r="I33" s="40" t="s">
+      <c r="H33" s="53"/>
+      <c r="I33" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="129" customHeight="1">
-      <c r="A34" s="40">
+      <c r="A34" s="43">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="48"/>
-      <c r="I34" s="40" t="s">
+      <c r="H34" s="53"/>
+      <c r="I34" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="209.25" customHeight="1">
-      <c r="A35" s="40">
+      <c r="A35" s="43">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="40" t="s">
+      <c r="H35" s="53"/>
+      <c r="I35" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="180.75" customHeight="1">
-      <c r="A36" s="40">
+      <c r="A36" s="43">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="54"/>
       <c r="G36" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="40" t="s">
+      <c r="H36" s="53"/>
+      <c r="I36" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="69">
-      <c r="A37" s="40">
+      <c r="A37" s="43">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="43"/>
+      <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:9" ht="35.25">
-      <c r="A38" s="40">
+      <c r="A38" s="43">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="43"/>
+      <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:9" ht="46.5">
-      <c r="A39" s="40">
+      <c r="A39" s="43">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="43"/>
+      <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:9" ht="35.25">
-      <c r="A40" s="40">
+      <c r="A40" s="43">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="43"/>
+      <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:9" ht="35.25">
-      <c r="A41" s="40">
+      <c r="A41" s="43">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="49"/>
+      <c r="F41" s="54"/>
       <c r="G41" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="40" t="s">
+      <c r="H41" s="53"/>
+      <c r="I41" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="35.25">
-      <c r="A42" s="40">
+      <c r="A42" s="43">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="49"/>
+      <c r="F42" s="54"/>
       <c r="G42" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="40" t="s">
+      <c r="H42" s="53"/>
+      <c r="I42" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="35.25">
-      <c r="A43" s="40">
+      <c r="A43" s="43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="49"/>
+      <c r="F43" s="54"/>
       <c r="G43" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="48"/>
-      <c r="I43" s="40" t="s">
+      <c r="H43" s="53"/>
+      <c r="I43" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="23.25">
-      <c r="A44" s="40">
+      <c r="A44" s="43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="43"/>
+      <c r="F44" s="46"/>
     </row>
     <row r="45" spans="1:9" ht="35.25">
-      <c r="A45" s="40">
+      <c r="A45" s="43">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="F45" s="49"/>
+      <c r="F45" s="54"/>
       <c r="G45" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H45" s="48"/>
-      <c r="I45" s="40" t="s">
+      <c r="H45" s="53"/>
+      <c r="I45" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="46.5">
-      <c r="A46" s="40">
+      <c r="A46" s="43">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="F46" s="43"/>
+      <c r="F46" s="46"/>
     </row>
     <row r="47" spans="1:9" ht="46.5">
-      <c r="A47" s="40">
+      <c r="A47" s="43">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="49"/>
+      <c r="F47" s="54"/>
       <c r="G47" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="48"/>
-      <c r="I47" s="40" t="s">
+      <c r="H47" s="53"/>
+      <c r="I47" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="23.25">
-      <c r="A48" s="40">
+      <c r="A48" s="43">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="49"/>
+      <c r="F48" s="54"/>
       <c r="G48" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="48"/>
-      <c r="I48" s="40" t="s">
+      <c r="H48" s="53"/>
+      <c r="I48" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="35.25">
-      <c r="A49" s="40">
+      <c r="A49" s="43">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="49"/>
+      <c r="F49" s="54"/>
       <c r="G49" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="48"/>
-      <c r="I49" s="40" t="s">
+      <c r="H49" s="53"/>
+      <c r="I49" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="46.5">
-      <c r="A50" s="40">
+      <c r="A50" s="43">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="F50" s="49"/>
+      <c r="F50" s="54"/>
       <c r="G50" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="48"/>
-      <c r="I50" s="40" t="s">
+      <c r="H50" s="53"/>
+      <c r="I50" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="35.25">
-      <c r="A51" s="40">
+      <c r="A51" s="43">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="F51" s="49"/>
+      <c r="F51" s="54"/>
       <c r="G51" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="48"/>
-      <c r="I51" s="40" t="s">
+      <c r="H51" s="53"/>
+      <c r="I51" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="35.25">
-      <c r="A52" s="40">
+      <c r="A52" s="43">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F52" s="49"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H52" s="48"/>
-      <c r="I52" s="40" t="s">
+      <c r="H52" s="53"/>
+      <c r="I52" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="35.25">
-      <c r="A53" s="40">
+      <c r="A53" s="43">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="F53" s="49"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H53" s="48"/>
-      <c r="I53" s="40" t="s">
+      <c r="H53" s="53"/>
+      <c r="I53" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="23.25">
-      <c r="A54" s="40">
+      <c r="A54" s="43">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="F54" s="49"/>
+      <c r="F54" s="54"/>
       <c r="G54" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H54" s="48"/>
-      <c r="I54" s="40" t="s">
+      <c r="H54" s="53"/>
+      <c r="I54" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="35.25">
-      <c r="A55" s="40">
+      <c r="A55" s="43">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="F55" s="49"/>
+      <c r="F55" s="54"/>
       <c r="G55" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H55" s="48"/>
-      <c r="I55" s="40" t="s">
+      <c r="H55" s="53"/>
+      <c r="I55" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="23.25">
-      <c r="A56" s="40">
+      <c r="A56" s="43">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="49"/>
+      <c r="F56" s="54"/>
       <c r="G56" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H56" s="48"/>
-      <c r="I56" s="40" t="s">
+      <c r="H56" s="53"/>
+      <c r="I56" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="23.25">
-      <c r="A57" s="40">
+      <c r="A57" s="43">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="57"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="61"/>
       <c r="G57" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H57" s="48"/>
-      <c r="I57" s="40" t="s">
+      <c r="H57" s="53"/>
+      <c r="I57" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="35.25">
-      <c r="A58" s="51">
+      <c r="A58" s="55">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="E58" s="56" t="s">
+      <c r="E58" s="60" t="s">
         <v>180</v>
       </c>
       <c r="F58" s="39"/>
       <c r="G58" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H58" s="58"/>
-      <c r="I58" s="40" t="s">
+      <c r="H58" s="62"/>
+      <c r="I58" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="23.25">
-      <c r="A59" s="51">
+      <c r="A59" s="55">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="E59" s="56" t="s">
+      <c r="E59" s="60" t="s">
         <v>183</v>
       </c>
       <c r="F59" s="39"/>
       <c r="G59" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H59" s="58"/>
-      <c r="I59" s="40" t="s">
+      <c r="H59" s="62"/>
+      <c r="I59" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="35.25">
-      <c r="A60" s="51">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="55" t="s">
+      <c r="A60" s="55">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="E60" s="56" t="s">
+      <c r="E60" s="60" t="s">
         <v>186</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H60" s="58"/>
-      <c r="I60" s="40" t="s">
+      <c r="H60" s="62"/>
+      <c r="I60" s="43" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="35.25">
-      <c r="A61" s="51">
-        <f t="shared" si="0"/>
+      <c r="A61" s="55">
+        <f>ROW(A59)</f>
         <v>59</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="E61" s="56" t="s">
+      <c r="E61" s="60" t="s">
         <v>189</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="H61" s="58"/>
-      <c r="I61" s="40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="40">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="53"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="40">
-        <f t="shared" si="0"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="147" customHeight="1">
+      <c r="A62" s="43">
+        <f>ROW(A61)</f>
         <v>61</v>
       </c>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63" s="36"/>
-      <c r="E63"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="53"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="40">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="E64" s="51"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="53"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="40">
-        <f t="shared" si="0"/>
+      <c r="B62" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="39"/>
+      <c r="G62" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="62"/>
+      <c r="I62" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="168.75" customHeight="1">
+      <c r="A63" s="43">
+        <f>ROW(A63)</f>
         <v>63</v>
       </c>
-      <c r="E65" s="51"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="53"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="40">
-        <f t="shared" si="0"/>
+      <c r="B63" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="54"/>
+      <c r="G63" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="62"/>
+      <c r="I63" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="167.25" customHeight="1">
+      <c r="A64" s="43">
+        <f>ROW(A64)</f>
         <v>64</v>
       </c>
-      <c r="E66" s="51"/>
-      <c r="H66" s="53"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="40">
-        <f t="shared" si="0"/>
+      <c r="B64" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="54"/>
+      <c r="G64" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H64" s="62"/>
+      <c r="I64" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="104.25" customHeight="1">
+      <c r="A65" s="43">
+        <f>ROW(A65)</f>
         <v>65</v>
       </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="40">
-        <f t="shared" ref="A68:A81" si="1">ROW(A66)</f>
+      <c r="B65" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="54"/>
+      <c r="G65" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H65" s="62"/>
+      <c r="I65" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="127.5">
+      <c r="A66" s="43">
+        <f>ROW(A66)</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="40">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="40">
-        <f t="shared" si="1"/>
+      <c r="B66" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F66" s="68"/>
+      <c r="G66" s="64"/>
+    </row>
+    <row r="67" spans="1:10" ht="127.5">
+      <c r="A67" s="43">
+        <f>A66 + 1</f>
+        <v>67</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" s="46"/>
+    </row>
+    <row r="68" spans="1:10" ht="35.25">
+      <c r="A68" s="43">
+        <f>A67 + 1</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="40">
-        <f t="shared" si="1"/>
+      <c r="B68" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" s="54"/>
+      <c r="G68" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" s="62"/>
+      <c r="I68" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="35.25">
+      <c r="A69" s="55">
+        <f>A68 + 1</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="40">
-        <f t="shared" si="1"/>
+      <c r="B69" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69" s="54"/>
+      <c r="G69" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69" s="62"/>
+      <c r="I69" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J69" s="57"/>
+    </row>
+    <row r="70" spans="1:10" ht="35.25">
+      <c r="A70" s="55">
+        <f>A69 + 1</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="40">
-        <f t="shared" si="1"/>
+      <c r="B70" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="54"/>
+      <c r="G70" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H70" s="62"/>
+      <c r="I70" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J70" s="57"/>
+    </row>
+    <row r="71" spans="1:10" ht="35.25">
+      <c r="A71" s="55">
+        <f>A70 + 1</f>
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="40">
-        <f t="shared" si="1"/>
+      <c r="B71" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="E71" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="F71" s="54"/>
+      <c r="G71" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H71" s="62"/>
+      <c r="I71" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J71" s="57"/>
+    </row>
+    <row r="72" spans="1:10" ht="23.25">
+      <c r="A72" s="55">
+        <f>A71 + 1</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="40">
-        <f t="shared" si="1"/>
+      <c r="B72" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="F72" s="54"/>
+      <c r="G72" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="62"/>
+      <c r="I72" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J72" s="57"/>
+    </row>
+    <row r="73" spans="1:10" ht="23.25">
+      <c r="A73" s="55">
+        <f>A72 + 1</f>
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="40">
-        <f t="shared" si="1"/>
+      <c r="B73" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F73" s="54"/>
+      <c r="G73" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73" s="62"/>
+      <c r="I73" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J73" s="57"/>
+    </row>
+    <row r="74" spans="1:10" ht="23.25">
+      <c r="A74" s="55">
+        <f>A73 + 1</f>
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="40">
-        <f t="shared" si="1"/>
+      <c r="B74" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="F74" s="61"/>
+      <c r="G74" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H74" s="67"/>
+      <c r="I74" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="J74" s="57"/>
+    </row>
+    <row r="75" spans="1:10" ht="35.25">
+      <c r="A75" s="55">
+        <f>A74 + 1</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="40">
-        <f t="shared" si="1"/>
+      <c r="B75" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="F75" s="54"/>
+      <c r="G75" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H75" s="62"/>
+      <c r="I75" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J75" s="57"/>
+    </row>
+    <row r="76" spans="1:10" ht="23.25">
+      <c r="A76" s="55">
+        <f>A75 + 1</f>
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="40">
-        <f t="shared" si="1"/>
+      <c r="B76" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="F76" s="54"/>
+      <c r="G76" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H76" s="62"/>
+      <c r="I76" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J76" s="57"/>
+    </row>
+    <row r="77" spans="1:10" ht="35.25">
+      <c r="A77" s="55">
+        <f>A76 + 1</f>
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="40">
-        <f t="shared" si="1"/>
+      <c r="B77" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77" s="54"/>
+      <c r="G77" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H77" s="62"/>
+      <c r="I77" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J77" s="57"/>
+    </row>
+    <row r="78" spans="1:10" ht="23.25">
+      <c r="A78" s="55">
+        <f>A77 + 1</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="40">
-        <f t="shared" si="1"/>
+      <c r="B78" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="F78" s="54"/>
+      <c r="G78" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" s="62"/>
+      <c r="I78" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J78" s="57"/>
+    </row>
+    <row r="79" spans="1:10" ht="23.25">
+      <c r="A79" s="55">
+        <f>A78 + 1</f>
         <v>79</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="F79" s="54"/>
+      <c r="G79" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H79" s="62"/>
+      <c r="I79" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J79" s="57"/>
+    </row>
+    <row r="80" spans="1:10" ht="23.25">
+      <c r="A80" s="55">
+        <f>A79 + 1</f>
+        <v>80</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="F80" s="54"/>
+      <c r="G80" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H80" s="62"/>
+      <c r="I80" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J80" s="57"/>
+    </row>
+    <row r="81" spans="1:10" ht="23.25">
+      <c r="A81" s="55">
+        <f>A80 + 1</f>
+        <v>81</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="F81" s="61"/>
+      <c r="G81" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H81" s="62"/>
+      <c r="I81" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J81" s="57"/>
+    </row>
+    <row r="82" spans="1:10" ht="23.25">
+      <c r="A82" s="55">
+        <f>A81 + 1</f>
+        <v>82</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="54"/>
+      <c r="G82" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" s="62"/>
+      <c r="I82" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J82" s="57"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="55">
+        <f>A82 + 1</f>
+        <v>83</v>
+      </c>
+      <c r="G83" s="43"/>
+      <c r="J83" s="57"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="43">
+        <f>A83 + 1</f>
+        <v>84</v>
+      </c>
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="58"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="43">
+        <f>A84 + 1</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="43">
+        <f>A85 + 1</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="43">
+        <f>A86 + 1</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="43">
+        <f>A87 + 1</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="43">
+        <f>A88 + 1</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="43">
+        <f>A89 + 1</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="43">
+        <f>A90 + 1</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="43">
+        <f>A91 + 1</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="43">
+        <f>A92 + 1</f>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3590,82 +4362,82 @@
   <sheetData>
     <row r="1" spans="2:2" ht="15.6">
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3697,49 +4469,49 @@
   <sheetData>
     <row r="2" spans="1:7" ht="21">
       <c r="A2" s="3" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="4" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="5" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="26.45">
       <c r="A7" s="6" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="52.9">
@@ -3747,16 +4519,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
@@ -3766,16 +4538,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="13"/>
@@ -3785,16 +4557,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
@@ -3804,10 +4576,10 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="14"/>
@@ -3817,16 +4589,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
@@ -3836,10 +4608,10 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -3849,16 +4621,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
@@ -3868,13 +4640,13 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -3883,16 +4655,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="32"/>
@@ -3902,10 +4674,10 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="14"/>

--- a/docs/test_plan_tracker/TestPlan-v1.xlsx
+++ b/docs/test_plan_tracker/TestPlan-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiithydstudents-my.sharepoint.com/personal/aditya_ga_students_iiit_ac_in/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F7CC132-18DF-4A16-8023-FEBF00F029F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3184F01-908F-402D-82D4-BC3BF9C4CEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AD0294D-087C-4BC0-9CA7-2E5F8F29F1E1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="301">
   <si>
     <t>Test Planner and Tracker</t>
   </si>
@@ -348,7 +348,7 @@
 Premium features should become accessible to the user</t>
   </si>
   <si>
-    <t>Payment Gateway will be implemeted in R2.</t>
+    <t>To be implmented in R2</t>
   </si>
   <si>
     <t>Yet to be implemented</t>
@@ -412,9 +412,6 @@
 The interaction should be logged in the system for future reference</t>
   </si>
   <si>
-    <t>To be implmented in R2</t>
-  </si>
-  <si>
     <t>Log in to the application using valid user credentials
 Navigate to the "Contact Paediatrician" page
 Ensure device permissions for calls/messages are revoked for the app
@@ -557,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t>Forum for Parent Discussion</t>
+    <t>Forum</t>
   </si>
   <si>
     <t>1) The system is up and running
@@ -791,9 +788,6 @@
     <t>System generates and maintains separate vaccine charts for each child.</t>
   </si>
   <si>
-    <t>Forum</t>
-  </si>
-  <si>
     <t>1) User is authenticated.
 2) Forum module is reachable.
 3) User has access to the “Create Post” page.</t>
@@ -1385,7 +1379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1418,27 +1412,15 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1479,7 +1461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1627,74 +1609,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1798,98 +1717,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2304,2029 +2150,2000 @@
   </sheetPr>
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:I82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="26" style="43" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="53" style="43" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="43" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="43" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="43"/>
+    <col min="1" max="1" width="9.42578125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="26" style="39" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="53" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="39" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38">
         <v>49</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="52"/>
-    </row>
-    <row r="2" spans="1:12" ht="35.25">
-      <c r="A2" s="37" t="s">
+      <c r="F1" s="37"/>
+    </row>
+    <row r="2" spans="1:12" ht="42">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="93.6" customHeight="1">
-      <c r="A3" s="43">
+      <c r="A3" s="39">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="43" t="s">
+      <c r="F3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="46.5">
-      <c r="A4" s="43">
+    <row r="4" spans="1:12" ht="58.5">
+      <c r="A4" s="39">
         <f t="shared" ref="A4:A66" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="43" t="s">
+      <c r="F4" s="40"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
-      <c r="A5" s="43">
+      <c r="A5" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="43" t="s">
+      <c r="F5" s="40"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="85.15" customHeight="1">
-      <c r="A6" s="43">
+      <c r="A6" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:12" ht="94.9" customHeight="1">
-      <c r="A7" s="43">
+      <c r="A7" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:12" ht="82.15" customHeight="1">
-      <c r="A8" s="43">
+      <c r="A8" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:12" ht="80.45" customHeight="1">
-      <c r="A9" s="43">
+      <c r="A9" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:12" ht="233.25" customHeight="1">
-      <c r="A10" s="43">
+      <c r="A10" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:12" ht="216.75" customHeight="1">
-      <c r="A11" s="43">
+      <c r="A11" s="39">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="120.6" customHeight="1">
-      <c r="A12" s="43">
+      <c r="A12" s="39">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="97.15" customHeight="1">
-      <c r="A13" s="43">
+      <c r="A13" s="39">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="46"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="207" customHeight="1">
-      <c r="A14" s="43">
+      <c r="A14" s="39">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="46"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:12" ht="135.6" customHeight="1">
-      <c r="A15" s="43">
+      <c r="A15" s="39">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:12" ht="192" customHeight="1">
-      <c r="A16" s="43">
+      <c r="A16" s="39">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="43" t="s">
+      <c r="F16" s="42"/>
+      <c r="G16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="133.5" customHeight="1">
-      <c r="A17" s="43">
+      <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="43" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="166.9" customHeight="1">
-      <c r="A18" s="43">
+      <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="46"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:26" ht="165.75" customHeight="1">
-      <c r="A19" s="43">
+      <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="40" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="155.44999999999999" customHeight="1">
+      <c r="A20" s="39">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="155.44999999999999" customHeight="1">
-      <c r="A20" s="43">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="43" t="s">
+      <c r="E20" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="88.5">
+      <c r="A21" s="39">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="69">
-      <c r="A21" s="43">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="43" t="s">
+      <c r="C21" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="D21" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="E21" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="F21" s="40"/>
+    </row>
+    <row r="22" spans="1:26" ht="73.5">
+      <c r="A22" s="39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="46"/>
-    </row>
-    <row r="22" spans="1:26" ht="58.5">
-      <c r="A22" s="43">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="43" t="s">
+      <c r="E22" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="F22" s="40"/>
+    </row>
+    <row r="23" spans="1:26" ht="88.5">
+      <c r="A23" s="39">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="23" spans="1:26" ht="58.5">
-      <c r="A23" s="43">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="43" t="s">
+      <c r="C23" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="D23" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="E23" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="F23" s="40"/>
+    </row>
+    <row r="24" spans="1:26" ht="69" customHeight="1">
+      <c r="A24" s="39">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="47"/>
-    </row>
-    <row r="24" spans="1:26" ht="69" customHeight="1">
-      <c r="A24" s="43">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="43" t="s">
+      <c r="E24" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="F24" s="40"/>
+    </row>
+    <row r="25" spans="1:26" ht="88.5">
+      <c r="A25" s="39">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="47"/>
-    </row>
-    <row r="25" spans="1:26" ht="58.5">
-      <c r="A25" s="43">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="43" t="s">
+      <c r="C25" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="D25" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="E25" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="F25" s="40"/>
+    </row>
+    <row r="26" spans="1:26" ht="88.5">
+      <c r="A26" s="39">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="46"/>
-    </row>
-    <row r="26" spans="1:26" ht="58.5">
-      <c r="A26" s="43">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="43" t="s">
+      <c r="E26" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="F26" s="40"/>
+    </row>
+    <row r="27" spans="1:26" ht="88.5">
+      <c r="A27" s="39">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="46"/>
-    </row>
-    <row r="27" spans="1:26" ht="69">
-      <c r="A27" s="43">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="43" t="s">
+      <c r="C27" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="D27" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="E27" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="F27" s="40"/>
+    </row>
+    <row r="28" spans="1:26" ht="88.5">
+      <c r="A28" s="39">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="1:26" ht="69">
-      <c r="A28" s="43">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="43" t="s">
+      <c r="C28" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="43" t="s">
+      <c r="E28" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="F28" s="40"/>
+    </row>
+    <row r="29" spans="1:26" ht="72.75" customHeight="1">
+      <c r="A29" s="39">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="46"/>
-    </row>
-    <row r="29" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A29" s="43">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="43" t="s">
+      <c r="C29" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="D29" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="E29" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="F29" s="42"/>
+      <c r="G29" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="41"/>
+      <c r="I29" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="60" customHeight="1">
+      <c r="A30" s="39">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="60" customHeight="1">
-      <c r="A30" s="43">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="43" t="s">
+      <c r="E30" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="132" customHeight="1">
+      <c r="A31" s="39">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="132" customHeight="1">
-      <c r="A31" s="43">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="43" t="s">
+      <c r="C31" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="D31" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="E31" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="F31" s="42"/>
+      <c r="G31" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="41"/>
+      <c r="I31" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="129" customHeight="1">
+      <c r="A32" s="39">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="129" customHeight="1">
-      <c r="A32" s="43">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="43" t="s">
+      <c r="E32" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="F32" s="42"/>
+      <c r="G32" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z32" s="43"/>
+    </row>
+    <row r="33" spans="1:9" ht="126" customHeight="1">
+      <c r="A33" s="39">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="54"/>
-      <c r="G32" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z32" s="63"/>
-    </row>
-    <row r="33" spans="1:9" ht="126" customHeight="1">
-      <c r="A33" s="43">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="43" t="s">
+      <c r="C33" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="D33" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="E33" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="41"/>
+      <c r="I33" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="129" customHeight="1">
+      <c r="A34" s="39">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="209.25" customHeight="1">
+      <c r="A35" s="39">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="129" customHeight="1">
-      <c r="A34" s="43">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="43" t="s">
+      <c r="C35" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="54"/>
-      <c r="G34" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="209.25" customHeight="1">
-      <c r="A35" s="43">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="43" t="s">
+      <c r="D35" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="43" t="s">
+      <c r="E35" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="180.75" customHeight="1">
+      <c r="A36" s="39">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="180.75" customHeight="1">
-      <c r="A36" s="43">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="43" t="s">
+      <c r="D36" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="E36" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="41"/>
+      <c r="I36" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="88.5">
+      <c r="A37" s="39">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="53"/>
-      <c r="I36" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="69">
-      <c r="A37" s="43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="43" t="s">
+      <c r="C37" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="D37" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="E37" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="F37" s="40"/>
+    </row>
+    <row r="38" spans="1:9" ht="44.25">
+      <c r="A38" s="39">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="46"/>
-    </row>
-    <row r="38" spans="1:9" ht="35.25">
-      <c r="A38" s="43">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="43" t="s">
+      <c r="D38" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="E38" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="F38" s="40"/>
+    </row>
+    <row r="39" spans="1:9" ht="58.5">
+      <c r="A39" s="39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="46"/>
-    </row>
-    <row r="39" spans="1:9" ht="46.5">
-      <c r="A39" s="43">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="43" t="s">
+      <c r="D39" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="E39" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="F39" s="40"/>
+    </row>
+    <row r="40" spans="1:9" ht="44.25">
+      <c r="A40" s="39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="46"/>
-    </row>
-    <row r="40" spans="1:9" ht="35.25">
-      <c r="A40" s="43">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="43" t="s">
+      <c r="D40" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="E40" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="F40" s="40"/>
+    </row>
+    <row r="41" spans="1:9" ht="44.25">
+      <c r="A41" s="39">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="46"/>
-    </row>
-    <row r="41" spans="1:9" ht="35.25">
-      <c r="A41" s="43">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="43" t="s">
+      <c r="D41" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="E41" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="F41" s="42"/>
+      <c r="G41" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="41"/>
+      <c r="I41" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="44.25">
+      <c r="A42" s="39">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="35.25">
-      <c r="A42" s="43">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="43" t="s">
+      <c r="D42" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="E42" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="F42" s="42"/>
+      <c r="G42" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="41"/>
+      <c r="I42" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="44.25">
+      <c r="A43" s="39">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="54"/>
-      <c r="G42" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="35.25">
-      <c r="A43" s="43">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="43" t="s">
+      <c r="D43" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="E43" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="F43" s="42"/>
+      <c r="G43" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="41"/>
+      <c r="I43" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="29.25">
+      <c r="A44" s="39">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="54"/>
-      <c r="G43" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="23.25">
-      <c r="A44" s="43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="43" t="s">
+      <c r="D44" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="E44" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="F44" s="40"/>
+    </row>
+    <row r="45" spans="1:9" ht="44.25">
+      <c r="A45" s="39">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="46"/>
-    </row>
-    <row r="45" spans="1:9" ht="35.25">
-      <c r="A45" s="43">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="43" t="s">
+      <c r="D45" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="E45" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="F45" s="42"/>
+      <c r="G45" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="41"/>
+      <c r="I45" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="58.5">
+      <c r="A46" s="39">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="46.5">
-      <c r="A46" s="43">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="43" t="s">
+      <c r="D46" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="E46" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:9" ht="58.5">
+      <c r="A47" s="39">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="F46" s="46"/>
-    </row>
-    <row r="47" spans="1:9" ht="46.5">
-      <c r="A47" s="43">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="43" t="s">
+      <c r="D47" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="E47" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="F47" s="42"/>
+      <c r="G47" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="41"/>
+      <c r="I47" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="29.25">
+      <c r="A48" s="39">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="D48" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="53"/>
-      <c r="I47" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="23.25">
-      <c r="A48" s="43">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="43" t="s">
+      <c r="E48" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="F48" s="42"/>
+      <c r="G48" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="41"/>
+      <c r="I48" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="44.25">
+      <c r="A49" s="39">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="D49" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="53"/>
-      <c r="I48" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="35.25">
-      <c r="A49" s="43">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="43" t="s">
+      <c r="E49" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="F49" s="42"/>
+      <c r="G49" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="58.5">
+      <c r="A50" s="39">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="D50" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" s="53"/>
-      <c r="I49" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="46.5">
-      <c r="A50" s="43">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="43" t="s">
+      <c r="E50" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="F50" s="42"/>
+      <c r="G50" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="41"/>
+      <c r="I50" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="44.25">
+      <c r="A51" s="39">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="D51" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="53"/>
-      <c r="I50" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="35.25">
-      <c r="A51" s="43">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="43" t="s">
+      <c r="E51" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="F51" s="42"/>
+      <c r="G51" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="41"/>
+      <c r="I51" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="44.25">
+      <c r="A52" s="39">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="D52" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="53"/>
-      <c r="I51" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="35.25">
-      <c r="A52" s="43">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="43" t="s">
+      <c r="E52" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="F52" s="42"/>
+      <c r="G52" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="41"/>
+      <c r="I52" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="44.25">
+      <c r="A53" s="39">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="D53" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="F52" s="54"/>
-      <c r="G52" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H52" s="53"/>
-      <c r="I52" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="35.25">
-      <c r="A53" s="43">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="43" t="s">
+      <c r="E53" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="F53" s="42"/>
+      <c r="G53" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="41"/>
+      <c r="I53" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="29.25">
+      <c r="A54" s="39">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="D54" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H53" s="53"/>
-      <c r="I53" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="23.25">
-      <c r="A54" s="43">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="43" t="s">
+      <c r="E54" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="F54" s="42"/>
+      <c r="G54" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="41"/>
+      <c r="I54" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="44.25">
+      <c r="A55" s="39">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="D55" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" s="53"/>
-      <c r="I54" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="35.25">
-      <c r="A55" s="43">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="43" t="s">
+      <c r="E55" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="F55" s="42"/>
+      <c r="G55" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="41"/>
+      <c r="I55" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="29.25">
+      <c r="A56" s="39">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="D56" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H55" s="53"/>
-      <c r="I55" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="23.25">
-      <c r="A56" s="43">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56" s="43" t="s">
+      <c r="E56" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="F56" s="42"/>
+      <c r="G56" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="41"/>
+      <c r="I56" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="29.25">
+      <c r="A57" s="39">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F57" s="42"/>
+      <c r="G57" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="41"/>
+      <c r="I57" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="44.25">
+      <c r="A58" s="39">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="D58" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="54"/>
-      <c r="G56" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H56" s="53"/>
-      <c r="I56" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="23.25">
-      <c r="A57" s="43">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H57" s="53"/>
-      <c r="I57" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="35.25">
-      <c r="A58" s="55">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="43" t="s">
+      <c r="E58" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="F58" s="42"/>
+      <c r="G58" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="41"/>
+      <c r="I58" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="29.25">
+      <c r="A59" s="39">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="E58" s="60" t="s">
+      <c r="D59" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="F58" s="39"/>
-      <c r="G58" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="62"/>
-      <c r="I58" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="23.25">
-      <c r="A59" s="55">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="43" t="s">
+      <c r="E59" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="F59" s="42"/>
+      <c r="G59" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="41"/>
+      <c r="I59" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="44.25">
+      <c r="A60" s="39">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="E59" s="60" t="s">
+      <c r="D60" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="F59" s="39"/>
-      <c r="G59" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H59" s="62"/>
-      <c r="I59" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="35.25">
-      <c r="A60" s="55">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="43" t="s">
+      <c r="E60" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="F60" s="39"/>
-      <c r="G60" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H60" s="62"/>
-      <c r="I60" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="35.25">
-      <c r="A61" s="55">
+      <c r="F60" s="42"/>
+      <c r="G60" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="41"/>
+      <c r="I60" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="44.25">
+      <c r="A61" s="39">
         <f>ROW(A59)</f>
         <v>59</v>
       </c>
-      <c r="B61" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="43" t="s">
+      <c r="B61" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="E61" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="F61" s="39"/>
-      <c r="G61" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H61" s="62"/>
-      <c r="I61" s="43" t="s">
+      <c r="F61" s="42"/>
+      <c r="G61" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="41"/>
+      <c r="I61" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="147" customHeight="1">
-      <c r="A62" s="43">
+      <c r="A62" s="39">
         <f>ROW(A61)</f>
         <v>61</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="E62" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F62" s="39"/>
-      <c r="G62" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H62" s="62"/>
-      <c r="I62" s="43" t="s">
+      <c r="F62" s="42"/>
+      <c r="G62" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="41"/>
+      <c r="I62" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="168.75" customHeight="1">
-      <c r="A63" s="43">
+      <c r="A63" s="39">
         <f>ROW(A63)</f>
         <v>63</v>
       </c>
-      <c r="B63" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H63" s="62"/>
-      <c r="I63" s="43" t="s">
+      <c r="B63" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="42"/>
+      <c r="G63" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="41"/>
+      <c r="I63" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A64" s="43">
+      <c r="A64" s="39">
         <f>ROW(A64)</f>
         <v>64</v>
       </c>
-      <c r="B64" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="F64" s="54"/>
-      <c r="G64" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H64" s="62"/>
-      <c r="I64" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="104.25" customHeight="1">
-      <c r="A65" s="43">
+      <c r="B64" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="42"/>
+      <c r="G64" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="41"/>
+      <c r="I64" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="104.25" customHeight="1">
+      <c r="A65" s="39">
         <f>ROW(A65)</f>
         <v>65</v>
       </c>
-      <c r="B65" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="F65" s="54"/>
-      <c r="G65" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H65" s="62"/>
-      <c r="I65" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="127.5">
-      <c r="A66" s="43">
+      <c r="B65" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="42"/>
+      <c r="G65" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" s="41"/>
+      <c r="I65" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="161.25">
+      <c r="A66" s="39">
         <f>ROW(A66)</f>
         <v>66</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="E66" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="F66" s="68"/>
-      <c r="G66" s="64"/>
-    </row>
-    <row r="67" spans="1:10" ht="127.5">
-      <c r="A67" s="43">
+      <c r="F66" s="40"/>
+    </row>
+    <row r="67" spans="1:9" ht="161.25">
+      <c r="A67" s="39">
         <f>A66 + 1</f>
         <v>67</v>
       </c>
-      <c r="B67" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="F67" s="46"/>
-    </row>
-    <row r="68" spans="1:10" ht="35.25">
-      <c r="A68" s="43">
+      <c r="B67" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="40"/>
+    </row>
+    <row r="68" spans="1:9" ht="44.25">
+      <c r="A68" s="39">
         <f>A67 + 1</f>
         <v>68</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="E68" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="D68" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="E68" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="F68" s="54"/>
-      <c r="G68" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H68" s="62"/>
-      <c r="I68" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="35.25">
-      <c r="A69" s="55">
+      <c r="F68" s="42"/>
+      <c r="G68" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="41"/>
+      <c r="I68" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="44.25">
+      <c r="A69" s="39">
         <f>A68 + 1</f>
         <v>69</v>
       </c>
-      <c r="B69" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="C69" s="59" t="s">
+      <c r="B69" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="F69" s="54"/>
-      <c r="G69" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H69" s="62"/>
-      <c r="I69" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J69" s="57"/>
-    </row>
-    <row r="70" spans="1:10" ht="35.25">
-      <c r="A70" s="55">
+      <c r="F69" s="42"/>
+      <c r="G69" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="41"/>
+      <c r="I69" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="44.25">
+      <c r="A70" s="39">
         <f>A69 + 1</f>
         <v>70</v>
       </c>
-      <c r="B70" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="E70" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="F70" s="54"/>
-      <c r="G70" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H70" s="62"/>
-      <c r="I70" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J70" s="57"/>
-    </row>
-    <row r="71" spans="1:10" ht="35.25">
-      <c r="A71" s="55">
+      <c r="B70" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="F70" s="42"/>
+      <c r="G70" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="41"/>
+      <c r="I70" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="44.25">
+      <c r="A71" s="39">
         <f>A70 + 1</f>
         <v>71</v>
       </c>
-      <c r="B71" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="C71" s="59" t="s">
+      <c r="B71" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="D71" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="E71" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="F71" s="54"/>
-      <c r="G71" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H71" s="62"/>
-      <c r="I71" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J71" s="57"/>
-    </row>
-    <row r="72" spans="1:10" ht="23.25">
-      <c r="A72" s="55">
+      <c r="F71" s="42"/>
+      <c r="G71" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H71" s="41"/>
+      <c r="I71" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="29.25">
+      <c r="A72" s="39">
         <f>A71 + 1</f>
         <v>72</v>
       </c>
-      <c r="B72" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="C72" s="59" t="s">
+      <c r="B72" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="D72" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="E72" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="F72" s="54"/>
-      <c r="G72" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H72" s="62"/>
-      <c r="I72" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J72" s="57"/>
-    </row>
-    <row r="73" spans="1:10" ht="23.25">
-      <c r="A73" s="55">
+      <c r="F72" s="42"/>
+      <c r="G72" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" s="41"/>
+      <c r="I72" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="29.25">
+      <c r="A73" s="39">
         <f>A72 + 1</f>
         <v>73</v>
       </c>
-      <c r="B73" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" s="59" t="s">
+      <c r="B73" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="D73" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="E73" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="F73" s="54"/>
-      <c r="G73" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H73" s="62"/>
-      <c r="I73" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J73" s="57"/>
-    </row>
-    <row r="74" spans="1:10" ht="23.25">
-      <c r="A74" s="55">
+      <c r="F73" s="42"/>
+      <c r="G73" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" s="41"/>
+      <c r="I73" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="29.25">
+      <c r="A74" s="39">
         <f>A73 + 1</f>
         <v>74</v>
       </c>
-      <c r="B74" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="C74" s="66" t="s">
+      <c r="B74" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D74" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="E74" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="F74" s="61"/>
-      <c r="G74" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H74" s="67"/>
-      <c r="I74" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="J74" s="57"/>
-    </row>
-    <row r="75" spans="1:10" ht="35.25">
-      <c r="A75" s="55">
+      <c r="F74" s="42"/>
+      <c r="G74" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="41"/>
+      <c r="I74" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="44.25">
+      <c r="A75" s="39">
         <f>A74 + 1</f>
         <v>75</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="E75" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="D75" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="E75" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H75" s="62"/>
-      <c r="I75" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J75" s="57"/>
-    </row>
-    <row r="76" spans="1:10" ht="23.25">
-      <c r="A76" s="55">
+      <c r="F75" s="42"/>
+      <c r="G75" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="41"/>
+      <c r="I75" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="29.25">
+      <c r="A76" s="39">
         <f>A75 + 1</f>
         <v>76</v>
       </c>
-      <c r="B76" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C76" s="43" t="s">
+      <c r="B76" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E76" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="D76" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="F76" s="54"/>
-      <c r="G76" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H76" s="62"/>
-      <c r="I76" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J76" s="57"/>
-    </row>
-    <row r="77" spans="1:10" ht="35.25">
-      <c r="A77" s="55">
+      <c r="F76" s="42"/>
+      <c r="G76" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" s="41"/>
+      <c r="I76" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="44.25">
+      <c r="A77" s="39">
         <f>A76 + 1</f>
         <v>77</v>
       </c>
-      <c r="B77" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C77" s="43" t="s">
+      <c r="B77" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="E77" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="E77" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="F77" s="54"/>
-      <c r="G77" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H77" s="62"/>
-      <c r="I77" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J77" s="57"/>
-    </row>
-    <row r="78" spans="1:10" ht="23.25">
-      <c r="A78" s="55">
+      <c r="F77" s="42"/>
+      <c r="G77" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" s="41"/>
+      <c r="I77" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="44.25">
+      <c r="A78" s="39">
         <f>A77 + 1</f>
         <v>78</v>
       </c>
-      <c r="B78" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="43" t="s">
+      <c r="B78" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="D78" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="F78" s="54"/>
-      <c r="G78" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H78" s="62"/>
-      <c r="I78" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J78" s="57"/>
-    </row>
-    <row r="79" spans="1:10" ht="23.25">
-      <c r="A79" s="55">
+      <c r="F78" s="42"/>
+      <c r="G78" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="41"/>
+      <c r="I78" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="29.25">
+      <c r="A79" s="39">
         <f>A78 + 1</f>
         <v>79</v>
       </c>
-      <c r="B79" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C79" s="43" t="s">
+      <c r="B79" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="D79" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="E79" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="F79" s="54"/>
-      <c r="G79" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H79" s="62"/>
-      <c r="I79" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J79" s="57"/>
-    </row>
-    <row r="80" spans="1:10" ht="23.25">
-      <c r="A80" s="55">
+      <c r="F79" s="42"/>
+      <c r="G79" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" s="41"/>
+      <c r="I79" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="29.25">
+      <c r="A80" s="39">
         <f>A79 + 1</f>
         <v>80</v>
       </c>
-      <c r="B80" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C80" s="43" t="s">
+      <c r="B80" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="D80" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="F80" s="54"/>
-      <c r="G80" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H80" s="62"/>
-      <c r="I80" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J80" s="57"/>
-    </row>
-    <row r="81" spans="1:10" ht="23.25">
-      <c r="A81" s="55">
+      <c r="F80" s="42"/>
+      <c r="G80" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" s="41"/>
+      <c r="I80" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="29.25">
+      <c r="A81" s="39">
         <f>A80 + 1</f>
         <v>81</v>
       </c>
-      <c r="B81" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C81" s="43" t="s">
+      <c r="B81" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="D81" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="E81" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="F81" s="61"/>
-      <c r="G81" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H81" s="62"/>
-      <c r="I81" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J81" s="57"/>
-    </row>
-    <row r="82" spans="1:10" ht="23.25">
-      <c r="A82" s="55">
+      <c r="F81" s="42"/>
+      <c r="G81" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="41"/>
+      <c r="I81" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="29.25">
+      <c r="A82" s="39">
         <f>A81 + 1</f>
         <v>82</v>
       </c>
-      <c r="B82" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C82" s="43" t="s">
+      <c r="B82" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E82" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="D82" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="E82" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="F82" s="54"/>
-      <c r="G82" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H82" s="62"/>
-      <c r="I82" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="J82" s="57"/>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="55">
+      <c r="F82" s="42"/>
+      <c r="G82" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="41"/>
+      <c r="I82" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="39">
         <f>A82 + 1</f>
         <v>83</v>
       </c>
-      <c r="G83" s="43"/>
-      <c r="J83" s="57"/>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="43">
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="39">
         <f>A83 + 1</f>
         <v>84</v>
       </c>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="43">
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="39">
         <f>A84 + 1</f>
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="43">
+    <row r="86" spans="1:9">
+      <c r="A86" s="39">
         <f>A85 + 1</f>
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="43">
+    <row r="87" spans="1:9">
+      <c r="A87" s="39">
         <f>A86 + 1</f>
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="43">
+    <row r="88" spans="1:9">
+      <c r="A88" s="39">
         <f>A87 + 1</f>
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="43">
+    <row r="89" spans="1:9">
+      <c r="A89" s="39">
         <f>A88 + 1</f>
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="43">
+    <row r="90" spans="1:9">
+      <c r="A90" s="39">
         <f>A89 + 1</f>
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="43">
+    <row r="91" spans="1:9">
+      <c r="A91" s="39">
         <f>A90 + 1</f>
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="43">
+    <row r="92" spans="1:9">
+      <c r="A92" s="39">
         <f>A91 + 1</f>
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="43">
+    <row r="93" spans="1:9">
+      <c r="A93" s="39">
         <f>A92 + 1</f>
         <v>93</v>
       </c>
@@ -4362,82 +4179,82 @@
   <sheetData>
     <row r="1" spans="2:2" ht="15.6">
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4452,7 +4269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5253C3FD-76A3-49BE-AF98-C103824CD266}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4469,49 +4286,49 @@
   <sheetData>
     <row r="2" spans="1:7" ht="21">
       <c r="A2" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="26.45">
       <c r="A7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="52.9">
@@ -4519,16 +4336,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
@@ -4538,16 +4355,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>280</v>
-      </c>
       <c r="E9" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="13"/>
@@ -4557,16 +4374,16 @@
         <v>3</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="E10" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>287</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
@@ -4576,10 +4393,10 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="14"/>
@@ -4589,16 +4406,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="E12" s="30" t="s">
         <v>291</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>293</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
@@ -4608,10 +4425,10 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
@@ -4621,16 +4438,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>296</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>298</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
@@ -4640,13 +4457,13 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -4655,16 +4472,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="32"/>
@@ -4674,10 +4491,10 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="14"/>

--- a/docs/test_plan_tracker/TestPlan-v1.xlsx
+++ b/docs/test_plan_tracker/TestPlan-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiithydstudents-my.sharepoint.com/personal/aditya_ga_students_iiit_ac_in/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3184F01-908F-402D-82D4-BC3BF9C4CEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C2070E7-608B-4782-9B05-020E3AAF8D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AD0294D-087C-4BC0-9CA7-2E5F8F29F1E1}"/>
   </bookViews>
@@ -2150,8 +2150,8 @@
   </sheetPr>
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2229,6 +2229,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="K3" s="40"/>
       <c r="L3" s="39" t="s">
         <v>14</v>
@@ -2252,6 +2253,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="40"/>
+      <c r="H4" s="40"/>
       <c r="K4" s="41"/>
       <c r="L4" s="39" t="s">
         <v>18</v>
@@ -2275,6 +2277,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="K5" s="42"/>
       <c r="L5" s="39" t="s">
         <v>22</v>
@@ -2298,6 +2301,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:12" ht="94.9" customHeight="1">
       <c r="A7" s="39">
@@ -2317,6 +2321,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:12" ht="82.15" customHeight="1">
       <c r="A8" s="39">
@@ -2336,6 +2341,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="40"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:12" ht="80.45" customHeight="1">
       <c r="A9" s="39">
@@ -2355,6 +2361,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="40"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:12" ht="233.25" customHeight="1">
       <c r="A10" s="39">
@@ -2374,6 +2381,7 @@
         <v>37</v>
       </c>
       <c r="F10" s="40"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:12" ht="216.75" customHeight="1">
       <c r="A11" s="39">
@@ -2393,6 +2401,7 @@
         <v>40</v>
       </c>
       <c r="F11" s="40"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="120.6" customHeight="1">
       <c r="A12" s="39">
@@ -2412,6 +2421,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="40"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="97.15" customHeight="1">
       <c r="A13" s="39">
@@ -2431,6 +2441,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="207" customHeight="1">
       <c r="A14" s="39">
@@ -2450,6 +2461,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:12" ht="135.6" customHeight="1">
       <c r="A15" s="39">
@@ -2469,6 +2481,7 @@
         <v>54</v>
       </c>
       <c r="F15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:12" ht="192" customHeight="1">
       <c r="A16" s="39">
@@ -2540,6 +2553,7 @@
         <v>62</v>
       </c>
       <c r="F18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:26" ht="165.75" customHeight="1">
       <c r="A19" s="39">
@@ -2611,6 +2625,7 @@
         <v>72</v>
       </c>
       <c r="F21" s="40"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:26" ht="73.5">
       <c r="A22" s="39">
@@ -2630,6 +2645,7 @@
         <v>74</v>
       </c>
       <c r="F22" s="40"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="1:26" ht="88.5">
       <c r="A23" s="39">
@@ -2649,6 +2665,7 @@
         <v>78</v>
       </c>
       <c r="F23" s="40"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:26" ht="69" customHeight="1">
       <c r="A24" s="39">
@@ -2668,6 +2685,7 @@
         <v>80</v>
       </c>
       <c r="F24" s="40"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:26" ht="88.5">
       <c r="A25" s="39">
@@ -2687,6 +2705,7 @@
         <v>84</v>
       </c>
       <c r="F25" s="40"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:26" ht="88.5">
       <c r="A26" s="39">
@@ -2706,6 +2725,7 @@
         <v>86</v>
       </c>
       <c r="F26" s="40"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:26" ht="88.5">
       <c r="A27" s="39">
@@ -2725,6 +2745,7 @@
         <v>90</v>
       </c>
       <c r="F27" s="40"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:26" ht="88.5">
       <c r="A28" s="39">
@@ -2744,6 +2765,7 @@
         <v>93</v>
       </c>
       <c r="F28" s="40"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" spans="1:26" ht="72.75" customHeight="1">
       <c r="A29" s="39">
@@ -2972,6 +2994,7 @@
         <v>118</v>
       </c>
       <c r="F37" s="40"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:9" ht="44.25">
       <c r="A38" s="39">
@@ -2991,6 +3014,7 @@
         <v>121</v>
       </c>
       <c r="F38" s="40"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:9" ht="58.5">
       <c r="A39" s="39">
@@ -3010,6 +3034,7 @@
         <v>124</v>
       </c>
       <c r="F39" s="40"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:9" ht="44.25">
       <c r="A40" s="39">
@@ -3029,6 +3054,7 @@
         <v>127</v>
       </c>
       <c r="F40" s="40"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:9" ht="44.25">
       <c r="A41" s="39">
@@ -3126,6 +3152,7 @@
         <v>139</v>
       </c>
       <c r="F44" s="40"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:9" ht="44.25">
       <c r="A45" s="39">
@@ -3171,6 +3198,7 @@
         <v>145</v>
       </c>
       <c r="F46" s="40"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:9" ht="58.5">
       <c r="A47" s="39">
@@ -3672,6 +3700,7 @@
         <v>201</v>
       </c>
       <c r="F66" s="40"/>
+      <c r="H66" s="40"/>
     </row>
     <row r="67" spans="1:9" ht="161.25">
       <c r="A67" s="39">
@@ -3691,6 +3720,7 @@
         <v>203</v>
       </c>
       <c r="F67" s="40"/>
+      <c r="H67" s="40"/>
     </row>
     <row r="68" spans="1:9" ht="44.25">
       <c r="A68" s="39">
